--- a/DNS.xlsx
+++ b/DNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\WorkSync\PycharmProjects\Public_DNS_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85B7E3B-2B57-41F9-92EE-8251E0B6E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C5C06E-82F4-405D-B96D-B0FC2ED64D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{3B91F4CA-9F92-466D-94B2-67761C3003C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{3B91F4CA-9F92-466D-94B2-67761C3003C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Markdown_Recommend" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1099">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3375,9 +3375,6 @@
     <t>dns-family.adguard.com</t>
   </si>
   <si>
-    <t>176-103-130-134.dns.adguard.com</t>
-  </si>
-  <si>
     <t>adult-filter2-dns2.cleanbrowsing.org</t>
   </si>
   <si>
@@ -3402,67 +3399,286 @@
     <t>dns64.dns.google</t>
   </si>
   <si>
-    <t>176-103-130-130.dns.adguard.com</t>
-  </si>
-  <si>
-    <t>176-103-130-132.dns.adguard.com</t>
-  </si>
-  <si>
     <t>adult-filter-dns.cleanbrowsing.org</t>
   </si>
   <si>
+    <t>check.dns.sh</t>
+  </si>
+  <si>
+    <t>public-dns-a.baidu.com</t>
+  </si>
+  <si>
+    <t>dns1.dnsforfamily.com</t>
+  </si>
+  <si>
+    <t>225.237.155.104.bc.googleusercontent.com</t>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDNS Client Subnet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dns.google/dns-query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dns.google</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dns64.dns.google/dns-query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolver1.dns.watch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolver2.dns.watch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kb.adguard.com/en/dns/setup-guide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNSCrypt:sdns://AQIAAAAAAAAAFDE3Ni4xMDMuMTMwLjEzMDo1NDQzINErR_JS3PLCu_iZEIbq95zkSV2LFsigxDIuUso_OQhzIjIuZG5zY3J5cHQuZGVmYXVsdC5uczEuYWRndWFyZC5jb20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNSCrypt:sdns://AQIAAAAAAAAAFDE3Ni4xMDMuMTMwLjEzMjo1NDQzILgxXdexS27jIKRw3C7Wsao5jMnlhvhdRUXWuMm1AFq6ITIuZG5zY3J5cHQuZmFtaWx5Lm5zMS5hZGd1YXJkLmNvbQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNSCrypt:sdns://AQcAAAAAAAAAFDE3Ni4xMDMuMTMwLjEzNjo1NDQzILXoRNa4Oj4-EmjraB--pw3jxfpo29aIFB2_LsBmstr6JTIuZG5zY3J5cHQudW5maWx0ZXJlZC5uczEuYWRndWFyZC5jb20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cleanbrowsing.org/filters/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>family-filter-dns.cleanbrowsing.org</t>
-  </si>
-  <si>
-    <t>check.dns.sh</t>
-  </si>
-  <si>
-    <t>public-dns-a.baidu.com</t>
-  </si>
-  <si>
-    <t>dns1.dnsforfamily.com</t>
-  </si>
-  <si>
-    <t>225.237.155.104.bc.googleusercontent.com</t>
-  </si>
-  <si>
-    <t>UpdateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDNS Client Subnet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://dns.google/dns-query</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dns.google</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://dns64.dns.google/dns-query</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolver1.dns.watch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolver2.dns.watch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doh.cleanbrowsing.org/doh/family-filter/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doh.cleanbrowsing.org/doh/adult-filter/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adult-filter-dns.cleanbrowsing.org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doh.cleanbrowsing.org/doh/security-filter/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>security-filter-dns.cleanbrowsing.org</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNSCrypt:sdns://AQMAAAAAAAAAFDE4NS4yMjguMTY4LjE2ODo4NDQzILysMvrVQ2kXHwgy1gdQJ8MgjO7w6OmflBjcd2Bl1I8pEWNsZWFuYnJvd3Npbmcub3Jn
+DNSCrypt_IPv6:sdns://AQMAAAAAAAAAFFsyYTBkOjJhMDA6MTo6XTo4NDQzILysMvrVQ2kXHwgy1gdQJ8MgjO7w6OmflBjcd2Bl1I8pEWNsZWFuYnJvd3Npbmcub3Jn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNSCrypt:sdns://AQMAAAAAAAAAEzE4NS4yMjguMTY4LjEwOjg0NDMgvKwy-tVDaRcfCDLWB1AnwyCM7vDo6Z-UGNx3YGXUjykRY2xlYW5icm93c2luZy5vcmc
+DNSCrypt_IPv6:sdns://AQMAAAAAAAAAFVsyYTBkOjJhMDA6MTo6MV06ODQ0MyC8rDL61UNpFx8IMtYHUCfDIIzu8Ojpn5QY3HdgZdSPKRFjbGVhbmJyb3dzaW5nLm9yZw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNSName</t>
+  </si>
+  <si>
+    <t>Cloudflare DNS</t>
+  </si>
+  <si>
+    <t>Cloudflare DNS Malware Blocking Only</t>
+  </si>
+  <si>
+    <t>Cloudflare DNS Malware and Adult Content Blocking Together</t>
+  </si>
+  <si>
+    <t>Cloudflare DNS64</t>
+  </si>
+  <si>
+    <t>Google Public DNS</t>
+  </si>
+  <si>
+    <t>Google Public DNS64</t>
+  </si>
+  <si>
+    <t>Cisco OpenDNS DNS64</t>
+  </si>
+  <si>
+    <t>(Neustar) (Verisign) (UltraDNS) Public DNS</t>
+  </si>
+  <si>
+    <t>(Neustar) (Verisign) (UltraDNS) Public DNS Threat Protection</t>
+  </si>
+  <si>
+    <t>(Neustar) (Verisign) (UltraDNS) Public DNS Family Secure</t>
+  </si>
+  <si>
+    <t>Norton Security</t>
+  </si>
+  <si>
+    <t>Norton Security + Pornography</t>
+  </si>
+  <si>
+    <t>Norton Security + Pornography + Other</t>
+  </si>
+  <si>
+    <t>OneDNS Home Edition</t>
+  </si>
+  <si>
+    <t>114 DNS Regular public DNS (clean and no hijacking)</t>
+  </si>
+  <si>
+    <t>114 DNS Block phishing virus Trojan sites (protect online security)</t>
+  </si>
+  <si>
+    <t>114 DNS Block pornographic sites (protect children)</t>
+  </si>
+  <si>
+    <t>AliDNS DNS</t>
+  </si>
+  <si>
+    <t>Baidu BaiduDNS</t>
+  </si>
+  <si>
+    <t>DNSPod (Tencent) DNS</t>
+  </si>
+  <si>
+    <t>360 (dnspai) Secure DNS Telecom/Mobile/Railway</t>
+  </si>
+  <si>
+    <t>360 (dnspai) Secure DNS Unicom</t>
+  </si>
+  <si>
+    <t>China's CFIEC Public DNS</t>
+  </si>
+  <si>
+    <t>Yandex Basic</t>
+  </si>
+  <si>
+    <t>Yandex Safe</t>
+  </si>
+  <si>
+    <t>Yandex Family</t>
+  </si>
+  <si>
+    <t>SafeDNS</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>156.154.70.2</t>
+  </si>
+  <si>
+    <t>199.85.126.10</t>
+  </si>
+  <si>
+    <t>199.85.126.20</t>
+  </si>
+  <si>
+    <t>199.85.126.30</t>
+  </si>
+  <si>
+    <t>77.88.8.88</t>
+  </si>
+  <si>
+    <t>76.76.19.19</t>
+  </si>
+  <si>
+    <t>1.0.0.3</t>
+  </si>
+  <si>
+    <t>199.85.127.10</t>
+  </si>
+  <si>
+    <t>199.85.127.20</t>
+  </si>
+  <si>
+    <t>199.85.127.30</t>
+  </si>
+  <si>
+    <t>45.11.45.11</t>
+  </si>
+  <si>
+    <t>76.223.122.150</t>
+  </si>
+  <si>
+    <t>2606:4700:4700::1113</t>
+  </si>
+  <si>
+    <t>2606:4700:4700::64</t>
+  </si>
+  <si>
+    <t>2620:119:53::123</t>
+  </si>
+  <si>
+    <t>2620:0:ccc::2</t>
+  </si>
+  <si>
+    <t>2620:74:1b::1:1</t>
+  </si>
+  <si>
+    <t>2610:a1:1018::2</t>
+  </si>
+  <si>
+    <t>240C::6666</t>
+  </si>
+  <si>
+    <t>2001:67c:28a4::</t>
+  </si>
+  <si>
+    <t>2602:fcbc::ad</t>
+  </si>
+  <si>
+    <t>2606:4700:4700::1003</t>
+  </si>
+  <si>
+    <t>2606:4700:4700::6400</t>
+  </si>
+  <si>
+    <t>2620:0:ccd::2</t>
+  </si>
+  <si>
+    <t>2620:74:1c::2:2</t>
+  </si>
+  <si>
+    <t>2610:a1:1019::2</t>
+  </si>
+  <si>
+    <t>2a01:3a0:53:53::</t>
+  </si>
+  <si>
+    <t>2001:4800:780e:510:a8cf:392e:ff04:8982</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3497,15 +3713,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3662,11 +3869,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3746,13 +3950,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4064,22 +4267,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129D77C9-6743-456D-9727-AB5578F5A33E}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.58203125" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1041</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -4094,12 +4298,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>957</v>
+        <v>1042</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>729</v>
+        <v>1069</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>731</v>
@@ -4111,9 +4315,9 @@
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>736</v>
+        <v>1043</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>738</v>
@@ -4128,39 +4332,39 @@
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>743</v>
+        <v>1044</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>744</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>745</v>
+        <v>1077</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>746</v>
+        <v>1083</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>749</v>
+        <v>1045</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>751</v>
+        <v>1084</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>958</v>
+        <v>1046</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>716</v>
@@ -4175,9 +4379,9 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>724</v>
+        <v>1047</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4188,7 +4392,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
@@ -4205,7 +4409,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>350</v>
       </c>
@@ -4222,7 +4426,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>359</v>
       </c>
@@ -4239,7 +4443,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>763</v>
       </c>
@@ -4256,7 +4460,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>775</v>
       </c>
@@ -4267,26 +4471,26 @@
         <v>779</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>780</v>
+        <v>1085</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>784</v>
+        <v>1048</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>786</v>
+        <v>1086</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>268</v>
       </c>
@@ -4303,692 +4507,658 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>310</v>
+        <v>1049</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>313</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>315</v>
+        <v>1087</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>294</v>
+        <v>1050</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>295</v>
+        <v>1071</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>297</v>
+        <v>1088</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>820</v>
+        <v>1051</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>821</v>
+        <v>333</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>824</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>825</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>828</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>236</v>
+        <v>1052</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>237</v>
+        <v>1072</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>1078</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>1053</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>243</v>
+        <v>1073</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>245</v>
+        <v>1079</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>753</v>
+        <v>1054</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>755</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>756</v>
+        <v>1080</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>757</v>
+        <v>697</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>760</v>
+        <v>1055</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>761</v>
+        <v>702</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>701</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>702</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>704</v>
+        <v>518</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>705</v>
+        <v>519</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1081</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>518</v>
+        <v>1056</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>255</v>
+        <v>1057</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>1058</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>1059</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>1060</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>959</v>
+        <v>1061</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>1062</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>834</v>
+        <v>1063</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>830</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1001</v>
+        <v>124</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>669</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>671</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1064</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>1065</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+        <v>1066</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D45" s="2" t="s">
-        <v>994</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>1067</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>1090</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>372</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>427</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>501</v>
+        <v>1068</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>502</v>
+        <v>168</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>503</v>
+        <v>170</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>96</v>
+        <v>676</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>1076</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1082</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>681</v>
+        <v>1091</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -4999,30 +5169,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CEBADD-87C7-497F-8CBC-C95F8969E78C}">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
-    <col min="7" max="7" width="3.58203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="34.58203125" customWidth="1"/>
-    <col min="9" max="9" width="3.58203125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="34.58203125" customWidth="1"/>
-    <col min="11" max="11" width="3.58203125" style="22" customWidth="1"/>
-    <col min="12" max="13" width="20.58203125" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="22" customWidth="1"/>
-    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="3.5546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" style="22" customWidth="1"/>
+    <col min="12" max="13" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" style="22" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5066,16 +5239,16 @@
         <v>14</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5107,7 +5280,7 @@
       <c r="K2" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="2" t="s">
         <v>734</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -5122,7 +5295,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5148,7 +5321,7 @@
         <v>741</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="2" t="s">
         <v>742</v>
       </c>
       <c r="M3" s="4"/>
@@ -5161,7 +5334,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5187,7 +5360,7 @@
         <v>747</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="2" t="s">
         <v>748</v>
       </c>
       <c r="M4" s="4"/>
@@ -5200,7 +5373,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5218,13 +5391,13 @@
         <v>751</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>752</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -5237,7 +5410,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5271,15 +5444,15 @@
       <c r="K6" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>1027</v>
+      <c r="L6" s="2" t="s">
+        <v>1023</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>866</v>
@@ -5288,7 +5461,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5310,10 +5483,10 @@
         <v>726</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>1029</v>
+        <v>1014</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>1025</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -5325,7 +5498,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5353,7 +5526,7 @@
         <v>346</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="2" t="s">
         <v>347</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -5362,6 +5535,7 @@
       <c r="N8" s="6" t="s">
         <v>349</v>
       </c>
+      <c r="O8" s="25"/>
       <c r="P8" s="8" t="s">
         <v>929</v>
       </c>
@@ -5369,7 +5543,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5403,7 +5577,7 @@
       <c r="K9" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="2" t="s">
         <v>356</v>
       </c>
       <c r="M9" s="8" t="s">
@@ -5412,6 +5586,7 @@
       <c r="N9" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="O9" s="25"/>
       <c r="P9" s="8" t="s">
         <v>929</v>
       </c>
@@ -5419,7 +5594,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5449,7 +5624,7 @@
         <v>364</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="2" t="s">
         <v>365</v>
       </c>
       <c r="M10" s="6" t="s">
@@ -5459,7 +5634,7 @@
         <v>367</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>929</v>
@@ -5468,7 +5643,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5502,7 +5677,7 @@
       <c r="K11" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="2" t="s">
         <v>773</v>
       </c>
       <c r="M11" s="6"/>
@@ -5510,7 +5685,7 @@
         <v>774</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>764</v>
@@ -5519,7 +5694,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5553,7 +5728,7 @@
       <c r="K12" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="2" t="s">
         <v>782</v>
       </c>
       <c r="M12" s="6"/>
@@ -5568,7 +5743,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5586,13 +5761,13 @@
         <v>786</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>788</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -5605,7 +5780,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5639,65 +5814,75 @@
       <c r="K14" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="2" t="s">
         <v>274</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>275</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>276</v>
+        <v>1029</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="8" t="s">
-        <v>913</v>
+      <c r="P14" s="2" t="s">
+        <v>1028</v>
       </c>
       <c r="Q14" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
+      <c r="C15" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>1006</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="8" t="s">
-        <v>913</v>
+        <v>1006</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="2" t="s">
+        <v>1028</v>
       </c>
       <c r="Q15" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5705,91 +5890,97 @@
         <v>899</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1006</v>
+        <v>287</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1006</v>
+        <v>287</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1006</v>
+        <v>287</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>1006</v>
+        <v>287</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>284</v>
+        <v>1031</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="8" t="s">
-        <v>913</v>
+      <c r="P16" s="2" t="s">
+        <v>1028</v>
       </c>
       <c r="Q16" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>75</v>
+      <c r="C17" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
+        <v>1033</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>77</v>
+        <v>1008</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="4" t="s">
-        <v>78</v>
+      <c r="J17" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="K17" s="8"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="8" t="s">
-        <v>913</v>
+      <c r="L17" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="Q17" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -5797,50 +5988,46 @@
         <v>899</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>1015</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>287</v>
+        <v>1007</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>287</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>291</v>
+        <v>306</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="2" t="s">
+        <v>1035</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>293</v>
+        <v>1036</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>1040</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="8" t="s">
-        <v>913</v>
+      <c r="P18" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="Q18" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -5848,91 +6035,85 @@
         <v>899</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1018</v>
+        <v>312</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1008</v>
+        <v>314</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="6" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K19" s="8"/>
-      <c r="L19" s="6" t="s">
-        <v>307</v>
+      <c r="L19" s="2" t="s">
+        <v>1037</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>309</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="8" t="s">
-        <v>928</v>
+      <c r="P19" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="Q19" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>311</v>
+      <c r="C20" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>313</v>
+        <v>135</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>315</v>
+        <v>137</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="6" t="s">
-        <v>316</v>
+      <c r="J20" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="L20" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="8" t="s">
-        <v>928</v>
+        <v>823</v>
       </c>
       <c r="Q20" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -5940,79 +6121,65 @@
         <v>899</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>294</v>
+        <v>824</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>1019</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>1009</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="6" t="s">
-        <v>297</v>
+        <v>826</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="6" t="s">
-        <v>298</v>
+        <v>827</v>
       </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>301</v>
-      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="8" t="s">
-        <v>928</v>
+        <v>823</v>
       </c>
       <c r="Q21" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>821</v>
+      <c r="C22" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="4" t="s">
-        <v>822</v>
+      <c r="J22" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="K22" s="8"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="8" t="s">
         <v>823</v>
       </c>
@@ -6020,7 +6187,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -6028,36 +6195,38 @@
         <v>899</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>824</v>
+        <v>236</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="F23" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6" t="s">
-        <v>826</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="6" t="s">
-        <v>827</v>
-      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="8"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="8" t="s">
-        <v>823</v>
+        <v>924</v>
       </c>
       <c r="Q23" s="12">
-        <v>20210809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -6065,112 +6234,102 @@
         <v>899</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>828</v>
+        <v>242</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6" t="s">
-        <v>333</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="6" t="s">
-        <v>334</v>
-      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="8"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="8" t="s">
-        <v>823</v>
+        <v>924</v>
       </c>
       <c r="Q24" s="12">
-        <v>20210809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H25" s="6"/>
+      <c r="C25" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="8" t="s">
-        <v>924</v>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="Q25" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H26" s="6"/>
+      <c r="C26" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="8" t="s">
-        <v>924</v>
+      <c r="P26" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="Q26" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -6178,14 +6337,14 @@
         <v>899</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
@@ -6203,73 +6362,73 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>758</v>
+      <c r="C28" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>759</v>
+      <c r="F28" s="6" t="s">
+        <v>700</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="7" t="s">
-        <v>754</v>
+        <v>698</v>
       </c>
       <c r="Q28" s="12">
         <v>20210807</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>761</v>
+      <c r="C29" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="4" t="s">
-        <v>762</v>
+      <c r="F29" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="7" t="s">
-        <v>754</v>
+        <v>698</v>
       </c>
       <c r="Q29" s="12">
         <v>20210807</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -6277,14 +6436,14 @@
         <v>899</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6302,7 +6461,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -6310,32 +6469,46 @@
         <v>899</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>701</v>
+        <v>249</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>1026</v>
+      </c>
       <c r="F31" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="7" t="s">
-        <v>698</v>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="8" t="s">
+        <v>926</v>
       </c>
       <c r="Q31" s="12">
-        <v>20210807</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6343,32 +6516,48 @@
         <v>899</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>704</v>
+        <v>518</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="E32" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1016</v>
+      </c>
       <c r="F32" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+        <v>990</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>991</v>
+      </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="7" t="s">
-        <v>698</v>
+      <c r="P32" s="8" t="s">
+        <v>936</v>
       </c>
       <c r="Q32" s="12">
-        <v>20210807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6376,152 +6565,130 @@
         <v>899</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1030</v>
+        <v>257</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>254</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="8" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Q33" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>519</v>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>990</v>
+        <v>107</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>991</v>
-      </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="8" t="s">
-        <v>936</v>
+        <v>858</v>
       </c>
       <c r="Q34" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>256</v>
+      <c r="C35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>258</v>
+        <v>112</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H35" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="8" t="s">
-        <v>927</v>
+        <v>858</v>
       </c>
       <c r="Q35" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="8"/>
@@ -6538,66 +6705,72 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>110</v>
+        <v>959</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="I37" s="8"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="K37" s="8"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Q37" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>1017</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="I38" s="8"/>
       <c r="J38" s="4"/>
       <c r="K38" s="8"/>
@@ -6606,568 +6779,586 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q38" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>20210809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="8"/>
-      <c r="J39" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="L39" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q39" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="B40" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>20210807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" s="8"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>41</v>
-      </c>
       <c r="B41" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>834</v>
+      <c r="C41" s="6" t="s">
+        <v>1002</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>456</v>
+        <v>674</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="6" t="s">
-        <v>830</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="8"/>
       <c r="J41" s="6"/>
       <c r="K41" s="8"/>
       <c r="L41" s="6" t="s">
-        <v>831</v>
+        <v>672</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>832</v>
+        <v>673</v>
       </c>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="8" t="s">
-        <v>835</v>
+        <v>668</v>
       </c>
       <c r="Q41" s="12">
-        <v>20210809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>20210807</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>43</v>
-      </c>
       <c r="B43" s="4" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="H43" s="6"/>
+        <v>435</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="6" t="s">
+        <v>994</v>
+      </c>
       <c r="I43" s="8"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="K43" s="8"/>
-      <c r="L43" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>673</v>
+      <c r="L43" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>996</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
-      <c r="P43" s="8" t="s">
-        <v>668</v>
+      <c r="P43" s="24" t="s">
+        <v>993</v>
       </c>
       <c r="Q43" s="12">
-        <v>20210807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="8"/>
+        <v>184</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="8" t="s">
-        <v>856</v>
+      <c r="N44" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="24" t="s">
+        <v>923</v>
       </c>
       <c r="Q44" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
+        <v>899</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="H45" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="I45" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="J45" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="24" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
       <c r="Q45" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="24" t="s">
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="8" t="s">
         <v>923</v>
       </c>
       <c r="Q46" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>86</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="8"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="24" t="s">
-        <v>923</v>
+      <c r="P47" s="8" t="s">
+        <v>921</v>
       </c>
       <c r="Q47" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>192</v>
+      <c r="C48" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>194</v>
+        <v>264</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="M48" s="6"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="8" t="s">
-        <v>923</v>
+        <v>260</v>
       </c>
       <c r="Q48" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="C49" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F49" s="6"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="8" t="s">
-        <v>921</v>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="24" t="s">
+        <v>997</v>
       </c>
       <c r="Q49" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210810</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="7"/>
+        <v>393</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>394</v>
+      </c>
       <c r="F50" s="6" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="K50" s="8"/>
+        <v>397</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>394</v>
+      </c>
       <c r="L50" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="M50" s="6"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="8" t="s">
-        <v>260</v>
+        <v>398</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="24" t="s">
+        <v>999</v>
       </c>
       <c r="Q50" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
+        <v>402</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="24" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="Q51" s="12">
-        <v>20210810</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20210811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -7178,366 +7369,256 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>402</v>
+        <v>1018</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>402</v>
+        <v>1010</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>402</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="I53" s="8"/>
       <c r="J53" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>402</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="K53" s="8"/>
       <c r="L53" s="6" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="N53" s="6"/>
+        <v>425</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="O53" s="6"/>
-      <c r="P53" s="24" t="s">
-        <v>999</v>
+      <c r="P53" s="8" t="s">
+        <v>930</v>
       </c>
       <c r="Q53" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="24" t="s">
-        <v>999</v>
+      <c r="P54" s="8" t="s">
+        <v>931</v>
       </c>
       <c r="Q54" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>899</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>422</v>
-      </c>
+      <c r="H55" s="6"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="6" t="s">
-        <v>423</v>
-      </c>
+      <c r="J55" s="6"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>425</v>
-      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
       <c r="N55" s="6" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="8" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="Q55" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="8" t="s">
-        <v>931</v>
+      <c r="C56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="24" t="s">
+        <v>1005</v>
       </c>
       <c r="Q56" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>502</v>
+      <c r="C57" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>503</v>
+        <v>169</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H57" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="8"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="O57" s="6"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="8" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="Q57" s="12">
         <v>20210811</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="24" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Q58" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
-        <v>62</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="Q59" s="12">
-        <v>20210811</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13">
-        <v>66</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>899</v>
-      </c>
-      <c r="C60" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="15" t="s">
+      <c r="E58" s="23"/>
+      <c r="F58" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="15" t="s">
+      <c r="G58" s="21"/>
+      <c r="H58" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="15" t="s">
+      <c r="I58" s="21"/>
+      <c r="J58" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="K60" s="21"/>
-      <c r="L60" s="15" t="s">
+      <c r="K58" s="21"/>
+      <c r="L58" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="M60" s="15" t="s">
+      <c r="M58" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="21" t="s">
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q58" s="17">
         <v>20210807</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{5A693482-456D-4149-BE7D-937DB0D948C9}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{499B4EAF-BABB-412C-9789-9BA6B2CBBB4D}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{7331A4FB-49CF-4976-A51D-889D1C9619FB}"/>
-    <hyperlink ref="L6" r:id="rId4" xr:uid="{38386A75-78EC-4884-B46F-3436A05ADC41}"/>
-    <hyperlink ref="L7" r:id="rId5" xr:uid="{BDAAD060-FA18-423C-9D8C-AB28C4BB9EA5}"/>
-    <hyperlink ref="L8" r:id="rId6" xr:uid="{3EC13073-C165-4F13-B347-E059737E92C9}"/>
-    <hyperlink ref="L9" r:id="rId7" xr:uid="{5CC9ED17-2E5F-4D6D-A2CE-B4E07FCC7445}"/>
-    <hyperlink ref="L10" r:id="rId8" xr:uid="{B46BBA92-E095-4962-842D-33C21046CBAE}"/>
-    <hyperlink ref="L11" r:id="rId9" xr:uid="{BF5DEF60-F32C-478E-ACE7-7BAE6BFDC811}"/>
-    <hyperlink ref="L12" r:id="rId10" xr:uid="{FEE4D898-13EE-4127-AD34-56957B24CDAC}"/>
-    <hyperlink ref="L14" r:id="rId11" xr:uid="{B477583F-4FC5-40EE-BF9F-DD80E4E5AA8E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7550,26 +7631,26 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="2.58203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.58203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.58203125" style="5" customWidth="1"/>
-    <col min="12" max="14" width="25.58203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="18.75" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17.4140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.5546875" style="5" customWidth="1"/>
+    <col min="12" max="14" width="25.5546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="5" customWidth="1"/>
     <col min="17" max="16384" width="26" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7619,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -7667,7 +7748,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -7705,7 +7786,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -7743,7 +7824,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -7775,7 +7856,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -7823,7 +7904,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -7859,7 +7940,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -7909,7 +7990,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -7957,7 +8038,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -8001,7 +8082,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -8049,7 +8130,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -8093,7 +8174,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -8129,7 +8210,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -8179,7 +8260,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -8217,7 +8298,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -8259,7 +8340,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -8295,7 +8376,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -8345,7 +8426,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -8387,7 +8468,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -8431,7 +8512,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -8473,7 +8554,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -8513,7 +8594,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -8549,7 +8630,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -8585,7 +8666,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -8623,7 +8704,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -8657,7 +8738,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -8689,7 +8770,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -8721,7 +8802,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -8753,7 +8834,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -8785,7 +8866,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -8817,7 +8898,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -8849,7 +8930,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -8887,7 +8968,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -8931,7 +9012,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -8967,7 +9048,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>36</v>
       </c>
@@ -9003,7 +9084,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>37</v>
       </c>
@@ -9039,7 +9120,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>38</v>
       </c>
@@ -9075,7 +9156,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -9123,7 +9204,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>40</v>
       </c>
@@ -9157,7 +9238,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>41</v>
       </c>
@@ -9195,7 +9276,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -9235,7 +9316,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -9273,7 +9354,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -9307,7 +9388,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>45</v>
       </c>
@@ -9343,7 +9424,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>46</v>
       </c>
@@ -9389,7 +9470,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>47</v>
       </c>
@@ -9433,7 +9514,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>48</v>
       </c>
@@ -9477,7 +9558,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>63</v>
       </c>
@@ -9509,7 +9590,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>35</v>
       </c>
@@ -9553,7 +9634,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -9585,7 +9666,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -9627,7 +9708,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -9671,7 +9752,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -9713,7 +9794,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -9755,7 +9836,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -9801,7 +9882,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -9835,7 +9916,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -9869,7 +9950,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>62</v>
       </c>
@@ -9905,7 +9986,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>66</v>
       </c>
@@ -9945,7 +10026,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="18" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" s="18" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -9957,7 +10038,7 @@
       <c r="M61" s="19"/>
       <c r="O61" s="19"/>
     </row>
-    <row r="62" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>0</v>
       </c>
@@ -10007,7 +10088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>57</v>
       </c>
@@ -10043,7 +10124,7 @@
       </c>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>58</v>
       </c>
@@ -10079,7 +10160,7 @@
       </c>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>59</v>
       </c>
@@ -10111,7 +10192,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>60</v>
       </c>
@@ -10145,7 +10226,7 @@
       </c>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>61</v>
       </c>
@@ -10179,7 +10260,7 @@
       </c>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>64</v>
       </c>
@@ -10227,7 +10308,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>65</v>
       </c>
@@ -10261,7 +10342,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -10305,7 +10386,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -10345,7 +10426,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -10379,7 +10460,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>68</v>
       </c>
@@ -10415,7 +10496,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>69</v>
       </c>
@@ -10447,7 +10528,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -10487,7 +10568,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -10523,7 +10604,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -10559,7 +10640,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>75</v>
       </c>
@@ -10595,7 +10676,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>76</v>
       </c>
@@ -10631,7 +10712,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>77</v>
       </c>
@@ -10667,7 +10748,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>78</v>
       </c>
@@ -10703,7 +10784,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>79</v>
       </c>
@@ -10735,7 +10816,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>80</v>
       </c>
@@ -10767,7 +10848,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>81</v>
       </c>
@@ -10803,7 +10884,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>82</v>
       </c>
@@ -10835,7 +10916,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>83</v>
       </c>
@@ -10871,7 +10952,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>84</v>
       </c>
@@ -10907,7 +10988,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>85</v>
       </c>
@@ -10943,7 +11024,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>86</v>
       </c>
@@ -10979,7 +11060,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>87</v>
       </c>
@@ -11017,7 +11098,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>88</v>
       </c>
@@ -11053,7 +11134,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>89</v>
       </c>
@@ -11091,7 +11172,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>90</v>
       </c>
@@ -11129,7 +11210,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>91</v>
       </c>
@@ -11167,7 +11248,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>92</v>
       </c>
@@ -11203,7 +11284,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>93</v>
       </c>
@@ -11235,7 +11316,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>94</v>
       </c>
@@ -11267,7 +11348,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>95</v>
       </c>
@@ -11299,7 +11380,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>96</v>
       </c>
@@ -11331,7 +11412,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>97</v>
       </c>
@@ -11363,7 +11444,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>98</v>
       </c>
@@ -11395,7 +11476,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>99</v>
       </c>
@@ -11433,7 +11514,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>100</v>
       </c>
@@ -11471,7 +11552,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>101</v>
       </c>
@@ -11513,7 +11594,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>102</v>
       </c>
@@ -11555,7 +11636,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>103</v>
       </c>
@@ -11599,7 +11680,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>104</v>
       </c>
@@ -11635,7 +11716,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>105</v>
       </c>
@@ -11667,7 +11748,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>106</v>
       </c>
@@ -11699,7 +11780,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>107</v>
       </c>
@@ -11739,7 +11820,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>108</v>
       </c>
@@ -11775,7 +11856,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>109</v>
       </c>
@@ -11811,7 +11892,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>110</v>
       </c>
@@ -11847,7 +11928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>111</v>
       </c>
@@ -11883,7 +11964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>112</v>
       </c>
@@ -11919,7 +12000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>113</v>
       </c>
@@ -11955,7 +12036,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>114</v>
       </c>
@@ -11991,7 +12072,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>115</v>
       </c>
@@ -12027,7 +12108,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>116</v>
       </c>
@@ -12067,7 +12148,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>117</v>
       </c>
@@ -12107,7 +12188,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>118</v>
       </c>
@@ -12139,7 +12220,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>119</v>
       </c>
@@ -12163,7 +12244,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>120</v>
       </c>
@@ -12189,7 +12270,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>121</v>
       </c>
@@ -12213,7 +12294,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>122</v>
       </c>
@@ -12241,7 +12322,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>123</v>
       </c>
@@ -12267,7 +12348,7 @@
       <c r="O126" s="4"/>
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>124</v>
       </c>
@@ -12295,7 +12376,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>125</v>
       </c>
@@ -12319,7 +12400,7 @@
       <c r="O128" s="4"/>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>126</v>
       </c>
@@ -12343,7 +12424,7 @@
       <c r="O129" s="4"/>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>127</v>
       </c>
@@ -12367,7 +12448,7 @@
       <c r="O130" s="4"/>
       <c r="P130" s="12"/>
     </row>
-    <row r="131" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>128</v>
       </c>
@@ -12391,7 +12472,7 @@
       <c r="O131" s="4"/>
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>129</v>
       </c>
@@ -12417,7 +12498,7 @@
       <c r="O132" s="4"/>
       <c r="P132" s="12"/>
     </row>
-    <row r="133" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>130</v>
       </c>
@@ -12443,7 +12524,7 @@
       <c r="O133" s="4"/>
       <c r="P133" s="12"/>
     </row>
-    <row r="134" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>131</v>
       </c>
@@ -12469,7 +12550,7 @@
       <c r="O134" s="4"/>
       <c r="P134" s="12"/>
     </row>
-    <row r="135" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>132</v>
       </c>
@@ -12495,7 +12576,7 @@
       <c r="O135" s="4"/>
       <c r="P135" s="12"/>
     </row>
-    <row r="136" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>133</v>
       </c>
@@ -12531,7 +12612,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>134</v>
       </c>
@@ -12567,7 +12648,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>135</v>
       </c>
@@ -12605,7 +12686,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>136</v>
       </c>
@@ -12647,7 +12728,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>137</v>
       </c>
@@ -12683,7 +12764,7 @@
       </c>
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>138</v>
       </c>
@@ -12719,7 +12800,7 @@
       </c>
       <c r="P141" s="12"/>
     </row>
-    <row r="142" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <v>139</v>
       </c>
@@ -12765,7 +12846,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <v>140</v>
       </c>
@@ -12809,7 +12890,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <v>141</v>
       </c>
@@ -12841,7 +12922,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <v>142</v>
       </c>
@@ -12873,7 +12954,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <v>143</v>
       </c>
@@ -12905,7 +12986,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <v>144</v>
       </c>
@@ -12937,7 +13018,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <v>145</v>
       </c>
@@ -12969,7 +13050,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11">
         <v>146</v>
       </c>
@@ -12999,7 +13080,7 @@
       <c r="O149" s="4"/>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11">
         <v>147</v>
       </c>
@@ -13031,7 +13112,7 @@
       </c>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <v>148</v>
       </c>
@@ -13059,7 +13140,7 @@
       <c r="O151" s="4"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <v>149</v>
       </c>
@@ -13087,7 +13168,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <v>150</v>
       </c>
@@ -13113,7 +13194,7 @@
       <c r="O153" s="4"/>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <v>151</v>
       </c>
@@ -13139,7 +13220,7 @@
       <c r="O154" s="4"/>
       <c r="P154" s="12"/>
     </row>
-    <row r="155" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <v>152</v>
       </c>
@@ -13165,7 +13246,7 @@
       <c r="O155" s="4"/>
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <v>153</v>
       </c>
@@ -13197,7 +13278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <v>154</v>
       </c>
@@ -13231,7 +13312,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <v>155</v>
       </c>
@@ -13265,7 +13346,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <v>156</v>
       </c>
@@ -13295,7 +13376,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <v>157</v>
       </c>
@@ -13323,7 +13404,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <v>158</v>
       </c>
@@ -13353,7 +13434,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <v>159</v>
       </c>
@@ -13385,7 +13466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <v>160</v>
       </c>
@@ -13419,7 +13500,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <v>161</v>
       </c>
@@ -13451,7 +13532,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <v>162</v>
       </c>
@@ -13483,7 +13564,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <v>163</v>
       </c>
@@ -13513,7 +13594,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <v>164</v>
       </c>
@@ -13543,7 +13624,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <v>165</v>
       </c>
@@ -13573,7 +13654,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <v>166</v>
       </c>
@@ -13603,7 +13684,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <v>167</v>
       </c>
@@ -13635,7 +13716,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <v>168</v>
       </c>
@@ -13667,7 +13748,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <v>169</v>
       </c>
@@ -13699,7 +13780,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <v>170</v>
       </c>
@@ -13729,7 +13810,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <v>171</v>
       </c>
@@ -13761,7 +13842,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <v>172</v>
       </c>
@@ -13791,7 +13872,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <v>173</v>
       </c>
@@ -13821,7 +13902,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <v>174</v>
       </c>
@@ -13851,7 +13932,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <v>175</v>
       </c>
@@ -13881,7 +13962,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <v>176</v>
       </c>
@@ -13911,7 +13992,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <v>177</v>
       </c>
@@ -13943,7 +14024,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <v>178</v>
       </c>
@@ -13973,7 +14054,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <v>179</v>
       </c>
@@ -14003,7 +14084,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <v>180</v>
       </c>
@@ -14033,7 +14114,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <v>181</v>
       </c>
@@ -14063,7 +14144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <v>182</v>
       </c>
@@ -14095,7 +14176,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <v>183</v>
       </c>
@@ -14127,7 +14208,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11">
         <v>184</v>
       </c>
@@ -14159,7 +14240,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="11">
         <v>185</v>
       </c>
@@ -14195,7 +14276,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="11">
         <v>186</v>
       </c>
@@ -14231,7 +14312,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <v>187</v>
       </c>
@@ -14269,7 +14350,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <v>188</v>
       </c>
@@ -14307,7 +14388,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <v>189</v>
       </c>
@@ -14343,7 +14424,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <v>190</v>
       </c>
@@ -14379,7 +14460,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>191</v>
       </c>

--- a/DNS.xlsx
+++ b/DNS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\WorkSync\PycharmProjects\Public_DNS_Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C5C06E-82F4-405D-B96D-B0FC2ED64D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1B9D0-93C8-4E7A-AB91-27FA55DAA585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{3B91F4CA-9F92-466D-94B2-67761C3003C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{3B91F4CA-9F92-466D-94B2-67761C3003C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Markdown_Recommend" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="1100">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3672,6 +3672,10 @@
   </si>
   <si>
     <t>2001:4800:780e:510:a8cf:392e:ff04:8982</t>
+  </si>
+  <si>
+    <t>anycast.censurfridns.dk unicast.censurfridns.dk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4274,14 +4278,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
+    <col min="2" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1041</v>
       </c>
@@ -4298,7 +4302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1042</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1043</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1044</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1045</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1046</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1047</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>350</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>359</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>763</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>775</v>
       </c>
@@ -4477,7 +4481,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1048</v>
       </c>
@@ -4490,7 +4494,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>268</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>277</v>
       </c>
@@ -4524,7 +4528,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>285</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
@@ -4558,7 +4562,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>302</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>310</v>
       </c>
@@ -4592,7 +4596,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1049</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1050</v>
       </c>
@@ -4626,7 +4630,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1051</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>236</v>
       </c>
@@ -4656,7 +4660,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>242</v>
       </c>
@@ -4669,7 +4673,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1052</v>
       </c>
@@ -4682,7 +4686,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1053</v>
       </c>
@@ -4695,7 +4699,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1054</v>
       </c>
@@ -4708,7 +4712,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>697</v>
       </c>
@@ -4721,7 +4725,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1055</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>704</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>249</v>
       </c>
@@ -4764,7 +4768,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>518</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>255</v>
       </c>
@@ -4794,7 +4798,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1056</v>
       </c>
@@ -4807,7 +4811,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1057</v>
       </c>
@@ -4820,7 +4824,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1058</v>
       </c>
@@ -4833,7 +4837,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1059</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1060</v>
       </c>
@@ -4863,7 +4867,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1061</v>
       </c>
@@ -4876,7 +4880,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1062</v>
       </c>
@@ -4889,7 +4893,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1063</v>
       </c>
@@ -4902,7 +4906,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -4915,7 +4919,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1064</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1065</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1066</v>
       </c>
@@ -4962,7 +4966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1067</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>177</v>
       </c>
@@ -4992,7 +4996,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>259</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>372</v>
       </c>
@@ -5020,7 +5024,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>392</v>
       </c>
@@ -5037,7 +5041,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>400</v>
       </c>
@@ -5054,7 +5058,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>408</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>419</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>427</v>
       </c>
@@ -5105,7 +5109,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>501</v>
       </c>
@@ -5118,7 +5122,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -5131,7 +5135,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>1068</v>
       </c>
@@ -5144,7 +5148,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>676</v>
       </c>
@@ -5176,26 +5180,26 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="3.5546875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="22" customWidth="1"/>
-    <col min="12" max="13" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" style="22" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="7" max="7" width="3.58203125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="3.58203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="3.58203125" style="22" customWidth="1"/>
+    <col min="12" max="13" width="20.58203125" customWidth="1"/>
+    <col min="15" max="15" width="9.58203125" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="22" customWidth="1"/>
+    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5295,7 +5299,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5461,7 +5465,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -6263,7 +6267,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6557,7 +6561,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -6785,7 +6789,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>20210809</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>20210807</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -7023,7 +7027,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -7146,7 +7150,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -7179,7 +7183,9 @@
       <c r="L48" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="M48" s="6"/>
+      <c r="M48" s="6" t="s">
+        <v>1099</v>
+      </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="8" t="s">
@@ -7189,7 +7195,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -7222,7 +7228,7 @@
         <v>20210810</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -7369,7 +7375,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -7416,7 +7422,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -7465,7 +7471,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -7574,7 +7580,7 @@
         <v>20210811</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -7631,26 +7637,26 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="2.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.5546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.5546875" style="5" customWidth="1"/>
-    <col min="12" max="14" width="25.5546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.58203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.58203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.58203125" style="5" customWidth="1"/>
+    <col min="12" max="14" width="25.58203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.4140625" style="5" customWidth="1"/>
     <col min="17" max="16384" width="26" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7700,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -7748,7 +7754,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -7786,7 +7792,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -7824,7 +7830,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -7856,7 +7862,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -7990,7 +7996,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -8038,7 +8044,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -8130,7 +8136,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -8174,7 +8180,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -8210,7 +8216,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -8376,7 +8382,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -8554,7 +8560,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -8666,7 +8672,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -8704,7 +8710,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -8770,7 +8776,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -8802,7 +8808,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -8834,7 +8840,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -8866,7 +8872,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -8930,7 +8936,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -8968,7 +8974,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -9012,7 +9018,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>36</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>37</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>38</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>40</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>41</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>45</v>
       </c>
@@ -9424,7 +9430,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>46</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>47</v>
       </c>
@@ -9514,7 +9520,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>48</v>
       </c>
@@ -9558,7 +9564,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>63</v>
       </c>
@@ -9590,7 +9596,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>35</v>
       </c>
@@ -9634,7 +9640,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -9666,7 +9672,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -9708,7 +9714,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -9752,7 +9758,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -9794,7 +9800,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -9836,7 +9842,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -9882,7 +9888,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -9916,7 +9922,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -9950,7 +9956,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>62</v>
       </c>
@@ -9986,7 +9992,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
         <v>66</v>
       </c>
@@ -10026,7 +10032,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="18" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="18" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -10038,7 +10044,7 @@
       <c r="M61" s="19"/>
       <c r="O61" s="19"/>
     </row>
-    <row r="62" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>0</v>
       </c>
@@ -10088,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>57</v>
       </c>
@@ -10124,7 +10130,7 @@
       </c>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>58</v>
       </c>
@@ -10160,7 +10166,7 @@
       </c>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>59</v>
       </c>
@@ -10192,7 +10198,7 @@
       <c r="O65" s="4"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>60</v>
       </c>
@@ -10226,7 +10232,7 @@
       </c>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>61</v>
       </c>
@@ -10260,7 +10266,7 @@
       </c>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>64</v>
       </c>
@@ -10308,7 +10314,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>65</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>67</v>
       </c>
@@ -10386,7 +10392,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -10426,7 +10432,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -10460,7 +10466,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>68</v>
       </c>
@@ -10496,7 +10502,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>69</v>
       </c>
@@ -10528,7 +10534,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>72</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -10604,7 +10610,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>74</v>
       </c>
@@ -10640,7 +10646,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>75</v>
       </c>
@@ -10676,7 +10682,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>76</v>
       </c>
@@ -10712,7 +10718,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>77</v>
       </c>
@@ -10748,7 +10754,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>78</v>
       </c>
@@ -10784,7 +10790,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>79</v>
       </c>
@@ -10816,7 +10822,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>80</v>
       </c>
@@ -10848,7 +10854,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>81</v>
       </c>
@@ -10884,7 +10890,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>82</v>
       </c>
@@ -10916,7 +10922,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>83</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>84</v>
       </c>
@@ -10988,7 +10994,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>85</v>
       </c>
@@ -11024,7 +11030,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>86</v>
       </c>
@@ -11060,7 +11066,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>87</v>
       </c>
@@ -11098,7 +11104,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>88</v>
       </c>
@@ -11134,7 +11140,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>89</v>
       </c>
@@ -11172,7 +11178,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
         <v>90</v>
       </c>
@@ -11210,7 +11216,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>91</v>
       </c>
@@ -11248,7 +11254,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>92</v>
       </c>
@@ -11284,7 +11290,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>93</v>
       </c>
@@ -11316,7 +11322,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>94</v>
       </c>
@@ -11348,7 +11354,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>95</v>
       </c>
@@ -11380,7 +11386,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>96</v>
       </c>
@@ -11412,7 +11418,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>97</v>
       </c>
@@ -11444,7 +11450,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>98</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
         <v>99</v>
       </c>
@@ -11514,7 +11520,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>100</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>101</v>
       </c>
@@ -11594,7 +11600,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>102</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>103</v>
       </c>
@@ -11680,7 +11686,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
         <v>104</v>
       </c>
@@ -11716,7 +11722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>105</v>
       </c>
@@ -11748,7 +11754,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>106</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>107</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>108</v>
       </c>
@@ -11856,7 +11862,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>109</v>
       </c>
@@ -11892,7 +11898,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>110</v>
       </c>
@@ -11928,7 +11934,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>111</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="11">
         <v>112</v>
       </c>
@@ -12000,7 +12006,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>113</v>
       </c>
@@ -12036,7 +12042,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>114</v>
       </c>
@@ -12072,7 +12078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>115</v>
       </c>
@@ -12108,7 +12114,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>116</v>
       </c>
@@ -12148,7 +12154,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>117</v>
       </c>
@@ -12188,7 +12194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>118</v>
       </c>
@@ -12220,7 +12226,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>119</v>
       </c>
@@ -12244,7 +12250,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
         <v>120</v>
       </c>
@@ -12270,7 +12276,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="11">
         <v>121</v>
       </c>
@@ -12294,7 +12300,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="11">
         <v>122</v>
       </c>
@@ -12322,7 +12328,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
         <v>123</v>
       </c>
@@ -12348,7 +12354,7 @@
       <c r="O126" s="4"/>
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>124</v>
       </c>
@@ -12376,7 +12382,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="11">
         <v>125</v>
       </c>
@@ -12400,7 +12406,7 @@
       <c r="O128" s="4"/>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="11">
         <v>126</v>
       </c>
@@ -12424,7 +12430,7 @@
       <c r="O129" s="4"/>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>127</v>
       </c>
@@ -12448,7 +12454,7 @@
       <c r="O130" s="4"/>
       <c r="P130" s="12"/>
     </row>
-    <row r="131" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11">
         <v>128</v>
       </c>
@@ -12472,7 +12478,7 @@
       <c r="O131" s="4"/>
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="11">
         <v>129</v>
       </c>
@@ -12498,7 +12504,7 @@
       <c r="O132" s="4"/>
       <c r="P132" s="12"/>
     </row>
-    <row r="133" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11">
         <v>130</v>
       </c>
@@ -12524,7 +12530,7 @@
       <c r="O133" s="4"/>
       <c r="P133" s="12"/>
     </row>
-    <row r="134" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
         <v>131</v>
       </c>
@@ -12550,7 +12556,7 @@
       <c r="O134" s="4"/>
       <c r="P134" s="12"/>
     </row>
-    <row r="135" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
         <v>132</v>
       </c>
@@ -12576,7 +12582,7 @@
       <c r="O135" s="4"/>
       <c r="P135" s="12"/>
     </row>
-    <row r="136" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
         <v>133</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
         <v>134</v>
       </c>
@@ -12648,7 +12654,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11">
         <v>135</v>
       </c>
@@ -12686,7 +12692,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11">
         <v>136</v>
       </c>
@@ -12728,7 +12734,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>137</v>
       </c>
@@ -12764,7 +12770,7 @@
       </c>
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
         <v>138</v>
       </c>
@@ -12800,7 +12806,7 @@
       </c>
       <c r="P141" s="12"/>
     </row>
-    <row r="142" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
         <v>139</v>
       </c>
@@ -12846,7 +12852,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="11">
         <v>140</v>
       </c>
@@ -12890,7 +12896,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="11">
         <v>141</v>
       </c>
@@ -12922,7 +12928,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11">
         <v>142</v>
       </c>
@@ -12954,7 +12960,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11">
         <v>143</v>
       </c>
@@ -12986,7 +12992,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="11">
         <v>144</v>
       </c>
@@ -13018,7 +13024,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="11">
         <v>145</v>
       </c>
@@ -13050,7 +13056,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>146</v>
       </c>
@@ -13080,7 +13086,7 @@
       <c r="O149" s="4"/>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11">
         <v>147</v>
       </c>
@@ -13112,7 +13118,7 @@
       </c>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="11">
         <v>148</v>
       </c>
@@ -13140,7 +13146,7 @@
       <c r="O151" s="4"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="11">
         <v>149</v>
       </c>
@@ -13168,7 +13174,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="11">
         <v>150</v>
       </c>
@@ -13194,7 +13200,7 @@
       <c r="O153" s="4"/>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="11">
         <v>151</v>
       </c>
@@ -13220,7 +13226,7 @@
       <c r="O154" s="4"/>
       <c r="P154" s="12"/>
     </row>
-    <row r="155" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="11">
         <v>152</v>
       </c>
@@ -13246,7 +13252,7 @@
       <c r="O155" s="4"/>
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="11">
         <v>153</v>
       </c>
@@ -13278,7 +13284,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="11">
         <v>154</v>
       </c>
@@ -13312,7 +13318,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="11">
         <v>155</v>
       </c>
@@ -13346,7 +13352,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="11">
         <v>156</v>
       </c>
@@ -13376,7 +13382,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="11">
         <v>157</v>
       </c>
@@ -13404,7 +13410,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="11">
         <v>158</v>
       </c>
@@ -13434,7 +13440,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11">
         <v>159</v>
       </c>
@@ -13466,7 +13472,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="11">
         <v>160</v>
       </c>
@@ -13500,7 +13506,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="11">
         <v>161</v>
       </c>
@@ -13532,7 +13538,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="11">
         <v>162</v>
       </c>
@@ -13564,7 +13570,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="11">
         <v>163</v>
       </c>
@@ -13594,7 +13600,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11">
         <v>164</v>
       </c>
@@ -13624,7 +13630,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="11">
         <v>165</v>
       </c>
@@ -13654,7 +13660,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>166</v>
       </c>
@@ -13684,7 +13690,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="11">
         <v>167</v>
       </c>
@@ -13716,7 +13722,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>168</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>169</v>
       </c>
@@ -13780,7 +13786,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="11">
         <v>170</v>
       </c>
@@ -13810,7 +13816,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
         <v>171</v>
       </c>
@@ -13842,7 +13848,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="11">
         <v>172</v>
       </c>
@@ -13872,7 +13878,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="11">
         <v>173</v>
       </c>
@@ -13902,7 +13908,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="11">
         <v>174</v>
       </c>
@@ -13932,7 +13938,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11">
         <v>175</v>
       </c>
@@ -13962,7 +13968,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11">
         <v>176</v>
       </c>
@@ -13992,7 +13998,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11">
         <v>177</v>
       </c>
@@ -14024,7 +14030,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11">
         <v>178</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="11">
         <v>179</v>
       </c>
@@ -14084,7 +14090,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="11">
         <v>180</v>
       </c>
@@ -14114,7 +14120,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
         <v>181</v>
       </c>
@@ -14144,7 +14150,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>182</v>
       </c>
@@ -14176,7 +14182,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="11">
         <v>183</v>
       </c>
@@ -14208,7 +14214,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11">
         <v>184</v>
       </c>
@@ -14240,7 +14246,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
         <v>185</v>
       </c>
@@ -14276,7 +14282,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
         <v>186</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
         <v>187</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
         <v>188</v>
       </c>
@@ -14388,7 +14394,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11">
         <v>189</v>
       </c>
@@ -14424,7 +14430,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11">
         <v>190</v>
       </c>
@@ -14460,7 +14466,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="13">
         <v>191</v>
       </c>
